--- a/excelFile/prop.xlsx
+++ b/excelFile/prop.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="15585" windowHeight="3165"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="15585" windowHeight="3165" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="propConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="prop1Config" sheetId="1" r:id="rId1"/>
+    <sheet name="prop2Config" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,31 +25,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道具id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
+    <t>道具id(无属性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具id(有属性)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,32 +402,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -430,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/excelFile/prop.xlsx
+++ b/excelFile/prop.xlsx
@@ -458,7 +458,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
